--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,309 +397,127 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>IPHONE 14 PRO MAX</v>
+        <v>特别奖</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>205</v>
-      </c>
-      <c r="B3" t="str">
-        <v>林金燕</v>
-      </c>
-      <c r="C3" t="str">
-        <v>内容运营部</v>
+        <v>IPHONE 14 PRO MAX</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>187</v>
-      </c>
-      <c r="B4" t="str">
-        <v>杨思瑞</v>
-      </c>
-      <c r="C4" t="str">
-        <v>内容运营部</v>
+        <v>考勤补补卡</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>戴森吸尘器V10</v>
+        <v>雅马哈吉他FS100C</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>18</v>
-      </c>
-      <c r="B6" t="str">
-        <v>谢清风</v>
-      </c>
-      <c r="C6" t="str">
-        <v>综合管理部</v>
+        <v>微软游戏机Xbox Series S</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>考勤补补卡</v>
+        <v>星特朗天文望远镜80DX</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>104</v>
-      </c>
-      <c r="B8" t="str">
-        <v>柳先頔</v>
-      </c>
-      <c r="C8" t="str">
-        <v>品牌管理部</v>
+        <v>MAC口红31#316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>雅马哈吉他FS100C</v>
+        <v>华为智能手表</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>贵州阅美圈文化传播有限公司</v>
-      </c>
-      <c r="B10" t="str">
-        <v>华麒雲-16</v>
-      </c>
-      <c r="C10" t="str">
-        <v>总经理</v>
+        <v>考勤补补卡</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>微软游戏机Xbox Series S</v>
+        <v>柏翠咖啡机</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>111</v>
-      </c>
-      <c r="B12" t="str">
-        <v>方俊超</v>
-      </c>
-      <c r="C12" t="str">
-        <v>创新战略部</v>
+        <v>阿迪达斯足球2022卡塔尔世界杯</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>125</v>
-      </c>
-      <c r="B13" t="str">
-        <v>周凯頔</v>
-      </c>
-      <c r="C13" t="str">
-        <v>内容运营部</v>
+        <v>戴森吸尘器V10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>星特朗天文望远镜80DX</v>
+        <v>富安娜长绒棉四件套</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>111</v>
-      </c>
-      <c r="B15" t="str">
-        <v>方俊超</v>
-      </c>
-      <c r="C15" t="str">
-        <v>创新战略部</v>
+        <v>索密斯多功能早餐机</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>125</v>
-      </c>
-      <c r="B16" t="str">
-        <v>周凯頔</v>
-      </c>
-      <c r="C16" t="str">
-        <v>内容运营部</v>
+        <v>索尼蓝牙音响SRS-XB23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>MAC口红31#316</v>
+        <v>COCO-MAT乳胶枕护颈枕</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>148</v>
-      </c>
-      <c r="B18" t="str">
-        <v>尚旭</v>
-      </c>
-      <c r="C18" t="str">
+        <v>奖品考勤补补卡</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>张涵</v>
+      </c>
+      <c r="C19" t="str">
         <v>内容运营部</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>华为智能手表</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>42</v>
+        <v>贵州次元赛高文化传播有限公司</v>
       </c>
       <c r="B20" t="str">
-        <v>姚秀娟</v>
+        <v>骆鑫磊</v>
       </c>
       <c r="C20" t="str">
-        <v>财务管理部</v>
+        <v>总经理</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>考勤补补卡</v>
+        <v>奖品索密斯多功能早餐机</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>78</v>
-      </c>
       <c r="B22" t="str">
-        <v>王德林</v>
+        <v>敖瑞</v>
       </c>
       <c r="C22" t="str">
-        <v>技术创新部</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>柏翠咖啡机</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>115</v>
-      </c>
-      <c r="B24" t="str">
-        <v>谢云江</v>
-      </c>
-      <c r="C24" t="str">
-        <v>创新战略部</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>阿迪达斯足球2022卡塔尔世界杯</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>20</v>
-      </c>
-      <c r="B26" t="str">
-        <v>杨羽雪</v>
-      </c>
-      <c r="C26" t="str">
-        <v>综合管理部</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>富安娜长绒棉四件套</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>四川合智聚云科技有限公司贵州分公司</v>
-      </c>
-      <c r="B28" t="str">
-        <v>王艳</v>
-      </c>
-      <c r="C28" t="str">
-        <v>代表</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>索密斯多功能早餐机</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>170</v>
-      </c>
-      <c r="B30" t="str">
-        <v>车正利</v>
-      </c>
-      <c r="C30" t="str">
         <v>内容运营部</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>索尼蓝牙音响SRS-XB23</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="str">
-        <v>潘祖涛-16</v>
-      </c>
-      <c r="C32" t="str">
-        <v>运营总监</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>COCO-MAT乳胶枕护颈枕</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>87</v>
-      </c>
-      <c r="B34" t="str">
-        <v>肖润之</v>
-      </c>
-      <c r="C34" t="str">
-        <v>技术创新部</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>奖品考勤补补卡</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>189</v>
-      </c>
-      <c r="B36" t="str">
-        <v>刘建银</v>
-      </c>
-      <c r="C36" t="str">
-        <v>内容运营部</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>奖品索密斯多功能早餐机</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>76</v>
-      </c>
-      <c r="B38" t="str">
-        <v>彭湃</v>
-      </c>
-      <c r="C38" t="str">
-        <v>技术创新部</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
   </ignoredErrors>
 </worksheet>
 </file>